--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Cecum_Microbes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B232548-74B1-406A-9EC8-33EF2E555C31}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2812435A-2C0C-4FED-B7DC-487591ED1825}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="8484" xr2:uid="{02758EDA-B4C7-4EF1-9F87-DB4E872C78DC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="132">
   <si>
     <t>Sample</t>
   </si>
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2D5E51-8D05-4FD2-89F4-1AE41B6D11EF}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2371,10 +2371,7 @@
         <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="F45" t="s">
         <v>91</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Cecum_Microbes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2812435A-2C0C-4FED-B7DC-487591ED1825}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4C2DE0-6344-4D58-AFF5-2FD60445EDFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="8484" xr2:uid="{02758EDA-B4C7-4EF1-9F87-DB4E872C78DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="135">
   <si>
     <t>Sample</t>
   </si>
@@ -421,6 +426,15 @@
   </si>
   <si>
     <t>Summer_Lab</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Ketones</t>
+  </si>
+  <si>
+    <t>BodyTemp</t>
   </si>
 </sst>
 </file>
@@ -796,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2D5E51-8D05-4FD2-89F4-1AE41B6D11EF}">
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T75" sqref="T75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,7 +822,7 @@
     <col min="11" max="11" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -842,44 +856,50 @@
       <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
+      <c r="L1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2">
-        <v>3895</v>
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="7">
-        <v>42767</v>
+        <v>126</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -913,140 +933,172 @@
       <c r="K3" s="7">
         <v>42759</v>
       </c>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L3" s="9">
+        <v>169</v>
+      </c>
+      <c r="M3">
+        <v>1.3</v>
+      </c>
+      <c r="N3">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
         <v>98</v>
       </c>
       <c r="F4">
-        <v>3920</v>
+        <v>3883</v>
       </c>
       <c r="G4" t="s">
         <v>101</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7">
-        <v>42755</v>
-      </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>42748</v>
+      </c>
+      <c r="L4" s="9">
+        <v>150</v>
+      </c>
+      <c r="M4">
+        <v>1.7</v>
+      </c>
+      <c r="N4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
         <v>98</v>
       </c>
       <c r="F5">
-        <v>3920</v>
+        <v>3899</v>
       </c>
       <c r="G5" t="s">
         <v>101</v>
       </c>
-      <c r="H5" t="s">
-        <v>106</v>
+      <c r="H5" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K5" s="7">
-        <v>42755</v>
-      </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>42758</v>
+      </c>
+      <c r="L5" s="9">
+        <v>184</v>
+      </c>
+      <c r="M5">
+        <v>2.7</v>
+      </c>
+      <c r="N5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
         <v>98</v>
       </c>
       <c r="F6">
-        <v>3921</v>
+        <v>3910</v>
       </c>
       <c r="G6" t="s">
         <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K6" s="7">
-        <v>42776</v>
-      </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>42758</v>
+      </c>
+      <c r="L6" s="9">
+        <v>136</v>
+      </c>
+      <c r="M6">
+        <v>2.8</v>
+      </c>
+      <c r="N6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7">
-        <v>4057</v>
+        <v>3910</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
@@ -1054,35 +1106,43 @@
       <c r="J7" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K7" s="7">
+        <v>42758</v>
+      </c>
+      <c r="L7" s="9">
+        <v>136</v>
+      </c>
+      <c r="M7">
+        <v>2.8</v>
+      </c>
+      <c r="N7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8">
-        <v>4057</v>
+        <v>3917</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
         <v>6</v>
@@ -1090,35 +1150,43 @@
       <c r="J8" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K8" s="7">
+        <v>42747</v>
+      </c>
+      <c r="L8" s="9">
+        <v>127</v>
+      </c>
+      <c r="M8">
+        <v>1.7</v>
+      </c>
+      <c r="N8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9">
-        <v>4058</v>
+        <v>3919</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
         <v>7</v>
@@ -1126,35 +1194,43 @@
       <c r="J9" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K9" s="7">
+        <v>42759</v>
+      </c>
+      <c r="L9" s="9">
+        <v>169</v>
+      </c>
+      <c r="M9">
+        <v>1.3</v>
+      </c>
+      <c r="N9">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10">
-        <v>4059</v>
+        <v>3922</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I10" t="s">
         <v>7</v>
@@ -1162,35 +1238,43 @@
       <c r="J10" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K10" s="7">
+        <v>42748</v>
+      </c>
+      <c r="L10" s="9">
+        <v>136</v>
+      </c>
+      <c r="M10">
+        <v>1.7</v>
+      </c>
+      <c r="N10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11">
-        <v>4060</v>
+        <v>3924</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" t="s">
-        <v>112</v>
+        <v>101</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="I11" t="s">
         <v>6</v>
@@ -1198,35 +1282,43 @@
       <c r="J11" t="s">
         <v>124</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K11" s="7">
+        <v>42759</v>
+      </c>
+      <c r="L11" s="9">
+        <v>134</v>
+      </c>
+      <c r="M11">
+        <v>3.7</v>
+      </c>
+      <c r="N11">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
         <v>98</v>
       </c>
       <c r="F12">
-        <v>3881</v>
+        <v>3924</v>
       </c>
       <c r="G12" t="s">
         <v>101</v>
       </c>
-      <c r="H12" t="s">
-        <v>102</v>
+      <c r="H12" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="I12" t="s">
         <v>6</v>
@@ -1234,35 +1326,43 @@
       <c r="J12" t="s">
         <v>124</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K12" s="7">
+        <v>42759</v>
+      </c>
+      <c r="L12" s="9">
+        <v>134</v>
+      </c>
+      <c r="M12">
+        <v>3.7</v>
+      </c>
+      <c r="N12">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
         <v>98</v>
       </c>
       <c r="F13">
-        <v>3882</v>
+        <v>3925</v>
       </c>
       <c r="G13" t="s">
         <v>101</v>
       </c>
-      <c r="H13" t="s">
-        <v>102</v>
+      <c r="H13" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="I13" t="s">
         <v>6</v>
@@ -1270,14 +1370,22 @@
       <c r="J13" t="s">
         <v>124</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
+      <c r="K13" s="7">
+        <v>42747</v>
+      </c>
+      <c r="L13" s="9">
+        <v>136</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>94</v>
@@ -1304,981 +1412,1233 @@
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K14" s="7">
         <v>42748</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>22</v>
+      <c r="L14" s="9">
+        <v>150</v>
+      </c>
+      <c r="M14">
+        <v>1.7</v>
+      </c>
+      <c r="N14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
         <v>98</v>
       </c>
       <c r="F15">
-        <v>3884</v>
+        <v>3899</v>
       </c>
       <c r="G15" t="s">
         <v>101</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K15" s="7">
-        <v>42755</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>23</v>
+        <v>42758</v>
+      </c>
+      <c r="L15" s="9">
+        <v>184</v>
+      </c>
+      <c r="M15">
+        <v>2.7</v>
+      </c>
+      <c r="N15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B16" t="s">
         <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
         <v>98</v>
       </c>
       <c r="F16">
-        <v>3885</v>
+        <v>3910</v>
       </c>
       <c r="G16" t="s">
         <v>101</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K16" s="7">
-        <v>42755</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>42758</v>
+      </c>
+      <c r="L16" s="9">
+        <v>136</v>
+      </c>
+      <c r="M16">
+        <v>2.8</v>
+      </c>
+      <c r="N16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B17" t="s">
         <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
         <v>98</v>
       </c>
       <c r="F17">
-        <v>3886</v>
+        <v>3917</v>
       </c>
       <c r="G17" t="s">
         <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I17" t="s">
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K17" s="7">
-        <v>42755</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>25</v>
+        <v>42747</v>
+      </c>
+      <c r="L17" s="9">
+        <v>127</v>
+      </c>
+      <c r="M17">
+        <v>1.7</v>
+      </c>
+      <c r="N17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B18" t="s">
         <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
         <v>98</v>
       </c>
       <c r="F18">
-        <v>3886</v>
+        <v>3919</v>
       </c>
       <c r="G18" t="s">
         <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7">
-        <v>42755</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>42759</v>
+      </c>
+      <c r="L18" s="9">
+        <v>169</v>
+      </c>
+      <c r="M18">
+        <v>1.3</v>
+      </c>
+      <c r="N18">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
         <v>98</v>
       </c>
       <c r="F19">
-        <v>3889</v>
+        <v>3922</v>
       </c>
       <c r="G19" t="s">
         <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>124</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>127</v>
+      </c>
+      <c r="K19" s="7">
+        <v>42748</v>
+      </c>
+      <c r="L19" s="9">
+        <v>136</v>
+      </c>
+      <c r="M19">
+        <v>1.7</v>
+      </c>
+      <c r="N19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
         <v>98</v>
       </c>
       <c r="F20">
-        <v>3890</v>
+        <v>3924</v>
       </c>
       <c r="G20" t="s">
         <v>101</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I20" t="s">
         <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>27</v>
+        <v>127</v>
+      </c>
+      <c r="K20" s="7">
+        <v>42759</v>
+      </c>
+      <c r="L20" s="9">
+        <v>134</v>
+      </c>
+      <c r="M20">
+        <v>3.7</v>
+      </c>
+      <c r="N20">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
         <v>98</v>
       </c>
       <c r="F21">
-        <v>3894</v>
+        <v>3925</v>
       </c>
       <c r="G21" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>103</v>
+      <c r="H21" t="s">
+        <v>109</v>
       </c>
       <c r="I21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K21" s="7">
-        <v>42776</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>28</v>
+        <v>42747</v>
+      </c>
+      <c r="L21" s="9">
+        <v>136</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B22" t="s">
         <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
         <v>98</v>
       </c>
       <c r="F22">
-        <v>3985</v>
+        <v>3925</v>
       </c>
       <c r="G22" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>103</v>
+      <c r="H22" t="s">
+        <v>109</v>
       </c>
       <c r="I22" t="s">
         <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7">
-        <v>42767</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>29</v>
+        <v>42747</v>
+      </c>
+      <c r="L22" s="9">
+        <v>136</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23">
-        <v>3895</v>
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
+      </c>
+      <c r="H23" t="s">
+        <v>91</v>
       </c>
       <c r="I23" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s">
-        <v>124</v>
-      </c>
-      <c r="K23" s="7">
-        <v>42767</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>30</v>
+        <v>126</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24">
-        <v>3899</v>
+        <v>91</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="H24" t="s">
+        <v>91</v>
       </c>
       <c r="I24" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s">
-        <v>124</v>
-      </c>
-      <c r="K24" s="7">
-        <v>42758</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>31</v>
+        <v>126</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25">
-        <v>3901</v>
+        <v>91</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="H25" t="s">
+        <v>91</v>
       </c>
       <c r="I25" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
-        <v>124</v>
-      </c>
-      <c r="K25" s="7">
-        <v>42767</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>32</v>
+        <v>91</v>
+      </c>
+      <c r="K25" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" t="s">
+        <v>91</v>
+      </c>
+      <c r="M25" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" t="s">
+        <v>91</v>
+      </c>
+      <c r="M28" t="s">
+        <v>91</v>
+      </c>
+      <c r="N28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M29" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" t="s">
+        <v>91</v>
+      </c>
+      <c r="M30" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M31" t="s">
+        <v>91</v>
+      </c>
+      <c r="N31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" t="s">
+        <v>91</v>
+      </c>
+      <c r="L33">
+        <v>173</v>
+      </c>
+      <c r="M33" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" t="s">
+        <v>91</v>
+      </c>
+      <c r="L34">
+        <v>133</v>
+      </c>
+      <c r="M34" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" t="s">
+        <v>91</v>
+      </c>
+      <c r="K35" t="s">
+        <v>91</v>
+      </c>
+      <c r="L35">
+        <v>190</v>
+      </c>
+      <c r="M35" t="s">
+        <v>91</v>
+      </c>
+      <c r="N35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36">
+        <v>173</v>
+      </c>
+      <c r="M36" t="s">
+        <v>91</v>
+      </c>
+      <c r="N36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37">
+        <v>184</v>
+      </c>
+      <c r="M37" t="s">
+        <v>91</v>
+      </c>
+      <c r="N37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J38" t="s">
+        <v>91</v>
+      </c>
+      <c r="K38" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38">
+        <v>133</v>
+      </c>
+      <c r="M38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39">
+        <v>167</v>
+      </c>
+      <c r="M39">
+        <v>0.4</v>
+      </c>
+      <c r="N39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
         <v>95</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C40" t="s">
         <v>96</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D40" t="s">
         <v>95</v>
       </c>
-      <c r="E26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26">
-        <v>3906</v>
-      </c>
-      <c r="G26" t="s">
-        <v>101</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" t="s">
-        <v>124</v>
-      </c>
-      <c r="K26" s="7">
-        <v>42775</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27">
-        <v>3907</v>
-      </c>
-      <c r="G27" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" t="s">
-        <v>124</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28">
-        <v>3910</v>
-      </c>
-      <c r="G28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" t="s">
-        <v>124</v>
-      </c>
-      <c r="K28" s="7">
-        <v>42758</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29">
-        <v>3910</v>
-      </c>
-      <c r="G29" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" t="s">
-        <v>105</v>
-      </c>
-      <c r="I29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" t="s">
-        <v>124</v>
-      </c>
-      <c r="K29" s="7">
-        <v>42758</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30">
-        <v>3911</v>
-      </c>
-      <c r="G30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" t="s">
-        <v>106</v>
-      </c>
-      <c r="I30" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" t="s">
-        <v>124</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31">
-        <v>3912</v>
-      </c>
-      <c r="G31" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" t="s">
-        <v>106</v>
-      </c>
-      <c r="I31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" t="s">
-        <v>124</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32">
-        <v>3912</v>
-      </c>
-      <c r="G32" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" t="s">
-        <v>124</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33">
-        <v>3916</v>
-      </c>
-      <c r="G33" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" t="s">
-        <v>106</v>
-      </c>
-      <c r="I33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" t="s">
-        <v>124</v>
-      </c>
-      <c r="K33" s="7">
-        <v>42775</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34">
-        <v>3917</v>
-      </c>
-      <c r="G34" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" t="s">
-        <v>106</v>
-      </c>
-      <c r="I34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" t="s">
-        <v>124</v>
-      </c>
-      <c r="K34" s="7">
-        <v>42747</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35">
-        <v>3919</v>
-      </c>
-      <c r="G35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" t="s">
-        <v>106</v>
-      </c>
-      <c r="I35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" t="s">
-        <v>124</v>
-      </c>
-      <c r="K35" s="7">
-        <v>42759</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36">
-        <v>3920</v>
-      </c>
-      <c r="G36" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" t="s">
-        <v>106</v>
-      </c>
-      <c r="I36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" t="s">
-        <v>124</v>
-      </c>
-      <c r="K36" s="7">
-        <v>42755</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37">
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40">
         <v>3921</v>
       </c>
-      <c r="G37" t="s">
-        <v>101</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" t="s">
         <v>107</v>
-      </c>
-      <c r="I37" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" t="s">
-        <v>124</v>
-      </c>
-      <c r="K37" s="7">
-        <v>42776</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38">
-        <v>3922</v>
-      </c>
-      <c r="G38" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" t="s">
-        <v>107</v>
-      </c>
-      <c r="I38" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" t="s">
-        <v>124</v>
-      </c>
-      <c r="K38" s="7">
-        <v>42748</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39">
-        <v>3923</v>
-      </c>
-      <c r="G39" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" t="s">
-        <v>124</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40">
-        <v>3924</v>
-      </c>
-      <c r="G40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="I40" t="s">
         <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K40" s="7">
-        <v>42759</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>42776</v>
+      </c>
+      <c r="L40">
+        <v>158</v>
+      </c>
+      <c r="M40">
+        <v>0.7</v>
+      </c>
+      <c r="N40">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
         <v>98</v>
       </c>
       <c r="F41">
-        <v>3924</v>
+        <v>3894</v>
       </c>
       <c r="G41" t="s">
         <v>101</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J41" t="s">
         <v>124</v>
       </c>
       <c r="K41" s="7">
-        <v>42759</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>42776</v>
+      </c>
+      <c r="L41">
+        <v>154</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E42" t="s">
         <v>98</v>
       </c>
       <c r="F42">
-        <v>3925</v>
+        <v>3906</v>
       </c>
       <c r="G42" t="s">
         <v>101</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I42" t="s">
         <v>6</v>
@@ -2287,135 +2647,174 @@
         <v>124</v>
       </c>
       <c r="K42" s="7">
-        <v>42747</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>48</v>
+        <v>42775</v>
+      </c>
+      <c r="L42">
+        <v>141</v>
+      </c>
+      <c r="M42">
+        <v>0.6</v>
+      </c>
+      <c r="N42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="F43">
+        <v>3916</v>
       </c>
       <c r="G43" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H43" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="I43" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="J43" t="s">
-        <v>126</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>49</v>
+        <v>124</v>
+      </c>
+      <c r="K43" s="7">
+        <v>42775</v>
+      </c>
+      <c r="L43">
+        <v>122</v>
+      </c>
+      <c r="M43">
+        <v>0.7</v>
+      </c>
+      <c r="N43">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="F44">
+        <v>3921</v>
       </c>
       <c r="G44" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H44" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="I44" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>126</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="K44" s="7">
+        <v>42776</v>
+      </c>
+      <c r="L44">
+        <v>158</v>
+      </c>
+      <c r="M44">
+        <v>0.7</v>
+      </c>
+      <c r="N44">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
-      </c>
-      <c r="F45" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45">
+        <v>3894</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I45" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="J45" t="s">
-        <v>126</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="K45" s="7">
+        <v>42776</v>
+      </c>
+      <c r="L45">
+        <v>154</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
         <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F46">
-        <v>4057</v>
+        <v>3906</v>
       </c>
       <c r="G46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H46" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I46" t="s">
         <v>6</v>
@@ -2423,34 +2822,43 @@
       <c r="J46" t="s">
         <v>127</v>
       </c>
-      <c r="K46" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="7">
+        <v>42775</v>
+      </c>
+      <c r="L46">
+        <v>141</v>
+      </c>
+      <c r="M46">
+        <v>0.6</v>
+      </c>
+      <c r="N46">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
         <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47">
-        <v>4057</v>
+        <v>3916</v>
       </c>
       <c r="G47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H47" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I47" t="s">
         <v>6</v>
@@ -2458,83 +2866,110 @@
       <c r="J47" t="s">
         <v>127</v>
       </c>
-      <c r="K47" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K47" s="7">
+        <v>42775</v>
+      </c>
+      <c r="L47">
+        <v>122</v>
+      </c>
+      <c r="M47">
+        <v>0.7</v>
+      </c>
+      <c r="N47">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
         <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F48">
-        <v>4058</v>
+        <v>3921</v>
       </c>
       <c r="G48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H48" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J48" t="s">
         <v>127</v>
       </c>
-      <c r="K48" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K48" s="7">
+        <v>42776</v>
+      </c>
+      <c r="L48">
+        <v>158</v>
+      </c>
+      <c r="M48">
+        <v>0.7</v>
+      </c>
+      <c r="N48">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
         <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F49">
-        <v>4059</v>
+        <v>3921</v>
       </c>
       <c r="G49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J49" t="s">
         <v>127</v>
       </c>
-      <c r="K49" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>55</v>
+      <c r="K49" s="7">
+        <v>42776</v>
+      </c>
+      <c r="L49">
+        <v>158</v>
+      </c>
+      <c r="M49">
+        <v>0.7</v>
+      </c>
+      <c r="N49">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -2543,33 +2978,42 @@
         <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F50">
-        <v>4060</v>
+        <v>3881</v>
       </c>
       <c r="G50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H50" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I50" t="s">
         <v>6</v>
       </c>
       <c r="J50" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>56</v>
+      <c r="L50">
+        <v>185</v>
+      </c>
+      <c r="M50">
+        <v>1.3</v>
+      </c>
+      <c r="N50">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -2596,155 +3040,200 @@
         <v>6</v>
       </c>
       <c r="J51" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>160</v>
+      </c>
+      <c r="M51">
+        <v>0.8</v>
+      </c>
+      <c r="N51">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E52" t="s">
         <v>98</v>
       </c>
       <c r="F52">
-        <v>3883</v>
+        <v>3889</v>
       </c>
       <c r="G52" t="s">
         <v>101</v>
       </c>
       <c r="H52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I52" t="s">
         <v>6</v>
       </c>
       <c r="J52" t="s">
-        <v>127</v>
-      </c>
-      <c r="K52" s="7">
-        <v>42748</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>58</v>
+        <v>124</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L52">
+        <v>177</v>
+      </c>
+      <c r="M52">
+        <v>0.3</v>
+      </c>
+      <c r="N52">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s">
         <v>98</v>
       </c>
       <c r="F53">
-        <v>3884</v>
+        <v>3890</v>
       </c>
       <c r="G53" t="s">
         <v>101</v>
       </c>
       <c r="H53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I53" t="s">
         <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>127</v>
-      </c>
-      <c r="K53" s="7">
-        <v>42755</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>59</v>
+        <v>124</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L53">
+        <v>167</v>
+      </c>
+      <c r="M53">
+        <v>0.4</v>
+      </c>
+      <c r="N53">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="E54" t="s">
         <v>98</v>
       </c>
       <c r="F54">
-        <v>3885</v>
+        <v>3907</v>
       </c>
       <c r="G54" t="s">
         <v>101</v>
       </c>
       <c r="H54" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I54" t="s">
         <v>6</v>
       </c>
       <c r="J54" t="s">
-        <v>127</v>
-      </c>
-      <c r="K54" s="7">
-        <v>42755</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L54">
+        <v>176</v>
+      </c>
+      <c r="M54">
+        <v>0.8</v>
+      </c>
+      <c r="N54">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
         <v>98</v>
       </c>
       <c r="F55">
-        <v>3886</v>
+        <v>3911</v>
       </c>
       <c r="G55" t="s">
         <v>101</v>
       </c>
       <c r="H55" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J55" t="s">
-        <v>127</v>
-      </c>
-      <c r="K55" s="7">
-        <v>42755</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>61</v>
+        <v>124</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L55">
+        <v>164</v>
+      </c>
+      <c r="M55">
+        <v>0.7</v>
+      </c>
+      <c r="N55">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -2759,188 +3248,233 @@
         <v>98</v>
       </c>
       <c r="F56">
-        <v>3889</v>
+        <v>3912</v>
       </c>
       <c r="G56" t="s">
         <v>101</v>
       </c>
       <c r="H56" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>62</v>
+      <c r="L56">
+        <v>165</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
         <v>98</v>
       </c>
       <c r="F57">
-        <v>3894</v>
+        <v>3912</v>
       </c>
       <c r="G57" t="s">
         <v>101</v>
       </c>
       <c r="H57" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I57" t="s">
         <v>7</v>
       </c>
       <c r="J57" t="s">
-        <v>127</v>
-      </c>
-      <c r="K57" s="7">
-        <v>42776</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>63</v>
+        <v>124</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L57">
+        <v>165</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="E58" t="s">
         <v>98</v>
       </c>
       <c r="F58">
-        <v>3895</v>
+        <v>3923</v>
       </c>
       <c r="G58" t="s">
         <v>101</v>
       </c>
       <c r="H58" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I58" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" t="s">
+        <v>124</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L58">
+        <v>170</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59">
+        <v>3882</v>
+      </c>
+      <c r="G59" t="s">
+        <v>101</v>
+      </c>
+      <c r="H59" t="s">
+        <v>102</v>
+      </c>
+      <c r="I59" t="s">
         <v>6</v>
-      </c>
-      <c r="J58" t="s">
-        <v>127</v>
-      </c>
-      <c r="K58" s="7">
-        <v>42767</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" t="s">
-        <v>93</v>
-      </c>
-      <c r="E59" t="s">
-        <v>98</v>
-      </c>
-      <c r="F59">
-        <v>3899</v>
-      </c>
-      <c r="G59" t="s">
-        <v>101</v>
-      </c>
-      <c r="H59" t="s">
-        <v>104</v>
-      </c>
-      <c r="I59" t="s">
-        <v>7</v>
       </c>
       <c r="J59" t="s">
         <v>127</v>
       </c>
-      <c r="K59" s="7">
-        <v>42758</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K59" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L59">
+        <v>160</v>
+      </c>
+      <c r="M59">
+        <v>0.8</v>
+      </c>
+      <c r="N59">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="E60" t="s">
         <v>98</v>
       </c>
       <c r="F60">
-        <v>3901</v>
+        <v>3889</v>
       </c>
       <c r="G60" t="s">
         <v>101</v>
       </c>
       <c r="H60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J60" t="s">
         <v>127</v>
       </c>
-      <c r="K60" s="7">
-        <v>42767</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L60">
+        <v>177</v>
+      </c>
+      <c r="M60">
+        <v>0.3</v>
+      </c>
+      <c r="N60">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="E61" t="s">
         <v>98</v>
       </c>
       <c r="F61">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="G61" t="s">
         <v>101</v>
       </c>
       <c r="H61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I61" t="s">
         <v>6</v>
@@ -2948,13 +3482,22 @@
       <c r="J61" t="s">
         <v>127</v>
       </c>
-      <c r="K61" s="7">
-        <v>42775</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K61" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L61">
+        <v>176</v>
+      </c>
+      <c r="M61">
+        <v>0.8</v>
+      </c>
+      <c r="N61">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -2986,10 +3529,19 @@
       <c r="K62" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62">
+        <v>176</v>
+      </c>
+      <c r="M62">
+        <v>0.8</v>
+      </c>
+      <c r="N62">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -3004,16 +3556,16 @@
         <v>98</v>
       </c>
       <c r="F63">
-        <v>3907</v>
+        <v>3911</v>
       </c>
       <c r="G63" t="s">
         <v>101</v>
       </c>
       <c r="H63" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J63" t="s">
         <v>127</v>
@@ -3021,45 +3573,63 @@
       <c r="K63" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63">
+        <v>164</v>
+      </c>
+      <c r="M63">
+        <v>0.7</v>
+      </c>
+      <c r="N63">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E64" t="s">
         <v>98</v>
       </c>
       <c r="F64">
-        <v>3910</v>
+        <v>3923</v>
       </c>
       <c r="G64" t="s">
         <v>101</v>
       </c>
       <c r="H64" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J64" t="s">
         <v>127</v>
       </c>
-      <c r="K64" s="7">
-        <v>42758</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L64">
+        <v>170</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -3074,7 +3644,7 @@
         <v>98</v>
       </c>
       <c r="F65">
-        <v>3911</v>
+        <v>3912</v>
       </c>
       <c r="G65" t="s">
         <v>101</v>
@@ -3088,209 +3658,263 @@
       <c r="J65" t="s">
         <v>127</v>
       </c>
-      <c r="K65" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>71</v>
+      <c r="K65" s="7">
+        <v>42776</v>
+      </c>
+      <c r="L65">
+        <v>165</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>96</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="E66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F66">
-        <v>3916</v>
+        <v>4057</v>
       </c>
       <c r="G66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H66" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I66" t="s">
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>127</v>
-      </c>
-      <c r="K66" s="7">
-        <v>42775</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>72</v>
+        <v>124</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L66">
+        <v>190</v>
+      </c>
+      <c r="M66" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F67">
-        <v>3917</v>
+        <v>4057</v>
       </c>
       <c r="G67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H67" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I67" t="s">
         <v>6</v>
       </c>
       <c r="J67" t="s">
-        <v>127</v>
-      </c>
-      <c r="K67" s="7">
-        <v>42747</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>73</v>
+        <v>124</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L67">
+        <v>190</v>
+      </c>
+      <c r="M67" t="s">
+        <v>91</v>
+      </c>
+      <c r="N67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F68">
-        <v>3919</v>
+        <v>4058</v>
       </c>
       <c r="G68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H68" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I68" t="s">
         <v>7</v>
       </c>
       <c r="J68" t="s">
-        <v>127</v>
-      </c>
-      <c r="K68" s="7">
-        <v>42759</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>74</v>
+        <v>124</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L68">
+        <v>173</v>
+      </c>
+      <c r="M68" t="s">
+        <v>91</v>
+      </c>
+      <c r="N68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D69" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="E69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F69">
-        <v>3920</v>
+        <v>4059</v>
       </c>
       <c r="G69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I69" t="s">
         <v>7</v>
       </c>
       <c r="J69" t="s">
-        <v>127</v>
-      </c>
-      <c r="K69" s="7">
-        <v>42755</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>75</v>
+        <v>124</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L69">
+        <v>184</v>
+      </c>
+      <c r="M69" t="s">
+        <v>91</v>
+      </c>
+      <c r="N69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="E70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F70">
-        <v>3921</v>
+        <v>4060</v>
       </c>
       <c r="G70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H70" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I70" t="s">
         <v>6</v>
       </c>
       <c r="J70" t="s">
-        <v>127</v>
-      </c>
-      <c r="K70" s="7">
-        <v>42776</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L70">
+        <v>133</v>
+      </c>
+      <c r="M70" t="s">
+        <v>91</v>
+      </c>
+      <c r="N70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>96</v>
       </c>
       <c r="D71" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F71">
-        <v>3921</v>
+        <v>4057</v>
       </c>
       <c r="G71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H71" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I71" t="s">
         <v>6</v>
@@ -3298,48 +3922,66 @@
       <c r="J71" t="s">
         <v>127</v>
       </c>
-      <c r="K71" s="7">
-        <v>42776</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L71">
+        <v>190</v>
+      </c>
+      <c r="M71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F72">
-        <v>3922</v>
+        <v>4057</v>
       </c>
       <c r="G72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J72" t="s">
         <v>127</v>
       </c>
-      <c r="K72" s="7">
-        <v>42748</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K72" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L72">
+        <v>190</v>
+      </c>
+      <c r="M72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -3348,19 +3990,19 @@
         <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E73" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F73">
-        <v>3923</v>
+        <v>4058</v>
       </c>
       <c r="G73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H73" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I73" t="s">
         <v>7</v>
@@ -3371,66 +4013,84 @@
       <c r="K73" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73">
+        <v>173</v>
+      </c>
+      <c r="M73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F74">
-        <v>3924</v>
+        <v>4059</v>
       </c>
       <c r="G74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J74" t="s">
         <v>127</v>
       </c>
-      <c r="K74" s="7">
-        <v>42759</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L74">
+        <v>184</v>
+      </c>
+      <c r="M74" t="s">
+        <v>91</v>
+      </c>
+      <c r="N74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F75">
-        <v>3925</v>
+        <v>4060</v>
       </c>
       <c r="G75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I75" t="s">
         <v>6</v>
@@ -3438,63 +4098,81 @@
       <c r="J75" t="s">
         <v>127</v>
       </c>
-      <c r="K75" s="7">
-        <v>42747</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>81</v>
+      <c r="K75" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L75">
+        <v>133</v>
+      </c>
+      <c r="M75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N75" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B76" t="s">
         <v>94</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E76" t="s">
         <v>98</v>
       </c>
       <c r="F76">
-        <v>3925</v>
+        <v>3895</v>
       </c>
       <c r="G76" t="s">
         <v>101</v>
       </c>
       <c r="H76" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I76" t="s">
         <v>6</v>
       </c>
       <c r="J76" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K76" s="7">
-        <v>42747</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>82</v>
+        <v>42767</v>
+      </c>
+      <c r="L76">
+        <v>141</v>
+      </c>
+      <c r="M76">
+        <v>1.4</v>
+      </c>
+      <c r="N76">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D77" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="E77" t="s">
         <v>98</v>
       </c>
       <c r="F77">
-        <v>3912</v>
+        <v>3920</v>
       </c>
       <c r="G77" t="s">
         <v>101</v>
@@ -3506,538 +4184,685 @@
         <v>7</v>
       </c>
       <c r="J77" t="s">
+        <v>125</v>
+      </c>
+      <c r="K77" s="7">
+        <v>42755</v>
+      </c>
+      <c r="L77">
+        <v>134</v>
+      </c>
+      <c r="M77">
+        <v>3.6</v>
+      </c>
+      <c r="N77">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78" t="s">
+        <v>98</v>
+      </c>
+      <c r="F78">
+        <v>3920</v>
+      </c>
+      <c r="G78" t="s">
+        <v>101</v>
+      </c>
+      <c r="H78" t="s">
+        <v>106</v>
+      </c>
+      <c r="I78" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78" t="s">
+        <v>125</v>
+      </c>
+      <c r="K78" s="7">
+        <v>42755</v>
+      </c>
+      <c r="L78">
+        <v>134</v>
+      </c>
+      <c r="M78">
+        <v>3.6</v>
+      </c>
+      <c r="N78">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" t="s">
+        <v>92</v>
+      </c>
+      <c r="E79" t="s">
+        <v>98</v>
+      </c>
+      <c r="F79">
+        <v>3884</v>
+      </c>
+      <c r="G79" t="s">
+        <v>101</v>
+      </c>
+      <c r="H79" t="s">
+        <v>102</v>
+      </c>
+      <c r="I79" t="s">
+        <v>6</v>
+      </c>
+      <c r="J79" t="s">
+        <v>124</v>
+      </c>
+      <c r="K79" s="7">
+        <v>42755</v>
+      </c>
+      <c r="L79">
+        <v>136</v>
+      </c>
+      <c r="M79">
+        <v>0.8</v>
+      </c>
+      <c r="N79">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" t="s">
+        <v>92</v>
+      </c>
+      <c r="E80" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80">
+        <v>3885</v>
+      </c>
+      <c r="G80" t="s">
+        <v>101</v>
+      </c>
+      <c r="H80" t="s">
+        <v>102</v>
+      </c>
+      <c r="I80" t="s">
+        <v>6</v>
+      </c>
+      <c r="J80" t="s">
+        <v>124</v>
+      </c>
+      <c r="K80" s="7">
+        <v>42755</v>
+      </c>
+      <c r="L80">
+        <v>143</v>
+      </c>
+      <c r="M80">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N80">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81">
+        <v>3886</v>
+      </c>
+      <c r="G81" t="s">
+        <v>101</v>
+      </c>
+      <c r="H81" t="s">
+        <v>102</v>
+      </c>
+      <c r="I81" t="s">
+        <v>6</v>
+      </c>
+      <c r="J81" t="s">
+        <v>124</v>
+      </c>
+      <c r="K81" s="7">
+        <v>42755</v>
+      </c>
+      <c r="L81">
+        <v>168</v>
+      </c>
+      <c r="M81">
+        <v>2.7</v>
+      </c>
+      <c r="N81">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82" t="s">
+        <v>92</v>
+      </c>
+      <c r="E82" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82">
+        <v>3886</v>
+      </c>
+      <c r="G82" t="s">
+        <v>101</v>
+      </c>
+      <c r="H82" t="s">
+        <v>102</v>
+      </c>
+      <c r="I82" t="s">
+        <v>6</v>
+      </c>
+      <c r="J82" t="s">
+        <v>124</v>
+      </c>
+      <c r="K82" s="7">
+        <v>42755</v>
+      </c>
+      <c r="L82">
+        <v>168</v>
+      </c>
+      <c r="M82">
+        <v>2.7</v>
+      </c>
+      <c r="N82">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" t="s">
+        <v>98</v>
+      </c>
+      <c r="F83">
+        <v>3985</v>
+      </c>
+      <c r="G83" t="s">
+        <v>101</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I83" t="s">
+        <v>6</v>
+      </c>
+      <c r="J83" t="s">
+        <v>124</v>
+      </c>
+      <c r="K83" s="7">
+        <v>42767</v>
+      </c>
+      <c r="L83">
+        <v>141</v>
+      </c>
+      <c r="M83">
+        <v>1.4</v>
+      </c>
+      <c r="N83">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" t="s">
+        <v>98</v>
+      </c>
+      <c r="F84">
+        <v>3895</v>
+      </c>
+      <c r="G84" t="s">
+        <v>101</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I84" t="s">
+        <v>6</v>
+      </c>
+      <c r="J84" t="s">
+        <v>124</v>
+      </c>
+      <c r="K84" s="7">
+        <v>42767</v>
+      </c>
+      <c r="L84">
+        <v>141</v>
+      </c>
+      <c r="M84">
+        <v>1.4</v>
+      </c>
+      <c r="N84">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85">
+        <v>3901</v>
+      </c>
+      <c r="G85" t="s">
+        <v>101</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I85" t="s">
+        <v>7</v>
+      </c>
+      <c r="J85" t="s">
+        <v>124</v>
+      </c>
+      <c r="K85" s="7">
+        <v>42767</v>
+      </c>
+      <c r="L85">
+        <v>160</v>
+      </c>
+      <c r="M85">
+        <v>1.6</v>
+      </c>
+      <c r="N85">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86">
+        <v>3920</v>
+      </c>
+      <c r="G86" t="s">
+        <v>101</v>
+      </c>
+      <c r="H86" t="s">
+        <v>106</v>
+      </c>
+      <c r="I86" t="s">
+        <v>7</v>
+      </c>
+      <c r="J86" t="s">
+        <v>124</v>
+      </c>
+      <c r="K86" s="7">
+        <v>42755</v>
+      </c>
+      <c r="L86">
+        <v>134</v>
+      </c>
+      <c r="M86">
+        <v>3.6</v>
+      </c>
+      <c r="N86">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" t="s">
+        <v>98</v>
+      </c>
+      <c r="F87">
+        <v>3884</v>
+      </c>
+      <c r="G87" t="s">
+        <v>101</v>
+      </c>
+      <c r="H87" t="s">
+        <v>102</v>
+      </c>
+      <c r="I87" t="s">
+        <v>6</v>
+      </c>
+      <c r="J87" t="s">
         <v>127</v>
       </c>
-      <c r="K77" s="7">
-        <v>42776</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-      <c r="I78" t="s">
-        <v>91</v>
-      </c>
-      <c r="J78" t="s">
-        <v>91</v>
-      </c>
-      <c r="K78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" t="s">
-        <v>91</v>
-      </c>
-      <c r="I79" t="s">
-        <v>91</v>
-      </c>
-      <c r="J79" t="s">
-        <v>91</v>
-      </c>
-      <c r="K79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" t="s">
-        <v>91</v>
-      </c>
-      <c r="I80" t="s">
-        <v>91</v>
-      </c>
-      <c r="J80" t="s">
-        <v>91</v>
-      </c>
-      <c r="K80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" t="s">
-        <v>91</v>
-      </c>
-      <c r="J81" t="s">
-        <v>91</v>
-      </c>
-      <c r="K81" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" t="s">
-        <v>91</v>
-      </c>
-      <c r="I82" t="s">
-        <v>91</v>
-      </c>
-      <c r="J82" t="s">
-        <v>91</v>
-      </c>
-      <c r="K82" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" t="s">
-        <v>91</v>
-      </c>
-      <c r="C83" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" t="s">
-        <v>91</v>
-      </c>
-      <c r="H83" t="s">
-        <v>91</v>
-      </c>
-      <c r="I83" t="s">
-        <v>91</v>
-      </c>
-      <c r="J83" t="s">
-        <v>91</v>
-      </c>
-      <c r="K83" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" t="s">
-        <v>91</v>
-      </c>
-      <c r="I84" t="s">
-        <v>91</v>
-      </c>
-      <c r="J84" t="s">
-        <v>91</v>
-      </c>
-      <c r="K84" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" t="s">
-        <v>91</v>
-      </c>
-      <c r="I85" t="s">
-        <v>91</v>
-      </c>
-      <c r="J85" t="s">
-        <v>91</v>
-      </c>
-      <c r="K85" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B86" t="s">
-        <v>91</v>
-      </c>
-      <c r="C86" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" t="s">
-        <v>91</v>
-      </c>
-      <c r="F86" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" t="s">
-        <v>91</v>
-      </c>
-      <c r="I86" t="s">
-        <v>91</v>
-      </c>
-      <c r="J86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K86" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C87" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" t="s">
-        <v>91</v>
-      </c>
-      <c r="G87" t="s">
-        <v>91</v>
-      </c>
-      <c r="H87" t="s">
-        <v>91</v>
-      </c>
-      <c r="I87" t="s">
-        <v>91</v>
-      </c>
-      <c r="J87" t="s">
-        <v>91</v>
-      </c>
-      <c r="K87" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="7">
+        <v>42755</v>
+      </c>
+      <c r="L87">
+        <v>136</v>
+      </c>
+      <c r="M87">
+        <v>0.8</v>
+      </c>
+      <c r="N87">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E88" t="s">
-        <v>91</v>
-      </c>
-      <c r="F88" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="F88">
+        <v>3885</v>
       </c>
       <c r="G88" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H88" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I88" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="J88" t="s">
-        <v>91</v>
-      </c>
-      <c r="K88" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="K88" s="7">
+        <v>42755</v>
+      </c>
+      <c r="L88">
+        <v>143</v>
+      </c>
+      <c r="M88">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N88">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>91</v>
-      </c>
-      <c r="F89" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="F89">
+        <v>3886</v>
       </c>
       <c r="G89" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H89" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I89" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="J89" t="s">
-        <v>91</v>
-      </c>
-      <c r="K89" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="K89" s="7">
+        <v>42755</v>
+      </c>
+      <c r="L89">
+        <v>168</v>
+      </c>
+      <c r="M89">
+        <v>2.7</v>
+      </c>
+      <c r="N89">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E90" t="s">
-        <v>91</v>
-      </c>
-      <c r="F90" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="F90">
+        <v>3895</v>
       </c>
       <c r="G90" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H90" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I90" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="J90" t="s">
-        <v>91</v>
-      </c>
-      <c r="K90" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="K90" s="7">
+        <v>42767</v>
+      </c>
+      <c r="L90">
+        <v>141</v>
+      </c>
+      <c r="M90">
+        <v>1.4</v>
+      </c>
+      <c r="N90">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>91</v>
-      </c>
-      <c r="F91" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="F91">
+        <v>3901</v>
       </c>
       <c r="G91" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H91" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="I91" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="J91" t="s">
-        <v>91</v>
-      </c>
-      <c r="K91" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="K91" s="7">
+        <v>42767</v>
+      </c>
+      <c r="L91">
+        <v>160</v>
+      </c>
+      <c r="M91">
+        <v>1.6</v>
+      </c>
+      <c r="N91">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E92" t="s">
-        <v>91</v>
-      </c>
-      <c r="F92" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="F92">
+        <v>3920</v>
       </c>
       <c r="G92" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H92" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="I92" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="J92" t="s">
-        <v>91</v>
-      </c>
-      <c r="K92" t="s">
-        <v>91</v>
+        <v>127</v>
+      </c>
+      <c r="K92" s="7">
+        <v>42755</v>
+      </c>
+      <c r="L92">
+        <v>134</v>
+      </c>
+      <c r="M92">
+        <v>3.6</v>
+      </c>
+      <c r="N92">
+        <v>34.1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:K92">
+    <sortCondition ref="D1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Cecum_Microbes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{2E4C2DE0-6344-4D58-AFF5-2FD60445EDFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{440586D3-0ED3-41C6-8C04-DFAFDCC9B686}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{2E4C2DE0-6344-4D58-AFF5-2FD60445EDFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{53BE5BF6-9237-4069-9512-F1ECE2BE4D60}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="60" windowWidth="16275" windowHeight="15435" xr2:uid="{02758EDA-B4C7-4EF1-9F87-DB4E872C78DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02758EDA-B4C7-4EF1-9F87-DB4E872C78DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -697,7 +697,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,19 +752,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D2" s="1">
-        <v>4058</v>
+        <v>3881</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -773,33 +773,33 @@
         <v>63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J2" s="6">
-        <v>173</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>58</v>
+        <v>185</v>
+      </c>
+      <c r="K2" s="1">
+        <v>34.1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>8</v>
+      <c r="A3" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>4059</v>
+        <v>3882</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
@@ -808,30 +808,30 @@
         <v>63</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J3" s="6">
-        <v>184</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>58</v>
+        <v>160</v>
+      </c>
+      <c r="K3" s="1">
+        <v>34.4</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
+      <c r="A4" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1">
-        <v>4060</v>
+        <v>3882</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -843,39 +843,39 @@
         <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J4" s="6">
-        <v>133</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>58</v>
+        <v>160</v>
+      </c>
+      <c r="K4" s="1">
+        <v>34.4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D5" s="1">
-        <v>3881</v>
+        <v>3883</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>65</v>
@@ -883,22 +883,22 @@
       <c r="I5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="6">
-        <v>185</v>
+      <c r="J5" s="7">
+        <v>150</v>
       </c>
       <c r="K5" s="1">
-        <v>34.1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
+      <c r="A6" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1">
         <v>3883</v>
@@ -961,17 +961,17 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
+      <c r="A8" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
@@ -989,15 +989,15 @@
         <v>67</v>
       </c>
       <c r="J8" s="6">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K8" s="1">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>59</v>
@@ -1006,7 +1006,7 @@
         <v>79</v>
       </c>
       <c r="D9" s="1">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -1024,103 +1024,103 @@
         <v>67</v>
       </c>
       <c r="J9" s="6">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="K9" s="1">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>14</v>
+      <c r="A10" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1">
-        <v>3890</v>
+        <v>3885</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" s="6">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="K10" s="1">
-        <v>35</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D11" s="1">
-        <v>3894</v>
+        <v>3886</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" s="6">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K11" s="1">
-        <v>37</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>16</v>
+      <c r="A12" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D12" s="1">
-        <v>3895</v>
+        <v>3889</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>65</v>
@@ -1129,100 +1129,100 @@
         <v>68</v>
       </c>
       <c r="J12" s="6">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="K12" s="1">
-        <v>3.8</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>17</v>
+      <c r="A13" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1">
-        <v>3899</v>
+        <v>3889</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="7">
-        <v>184</v>
+        <v>68</v>
+      </c>
+      <c r="J13" s="6">
+        <v>177</v>
       </c>
       <c r="K13" s="1">
-        <v>36</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>3901</v>
+        <v>3890</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="6">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="K14" s="1">
-        <v>3.1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>3906</v>
+        <v>3890</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>63</v>
@@ -1231,33 +1231,33 @@
         <v>65</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" s="6">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="K15" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>3907</v>
+        <v>3894</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>63</v>
@@ -1266,123 +1266,123 @@
         <v>65</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J16" s="6">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="K16" s="1">
-        <v>35.5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>21</v>
+      <c r="A17" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>3910</v>
+        <v>3894</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="7">
-        <v>136</v>
+        <v>68</v>
+      </c>
+      <c r="J17" s="6">
+        <v>154</v>
       </c>
       <c r="K17" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>3912</v>
+        <v>3895</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J18" s="6">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="K18" s="1">
-        <v>35.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>23</v>
+      <c r="A19" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="1">
-        <v>3916</v>
+        <v>3895</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J19" s="6">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="K19" s="1">
-        <v>34</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>60</v>
@@ -1391,10 +1391,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>3917</v>
+        <v>3899</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>61</v>
@@ -1406,27 +1406,27 @@
         <v>65</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J20" s="7">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="K20" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>25</v>
+      <c r="A21" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>3919</v>
+        <v>3899</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>6</v>
@@ -1441,18 +1441,18 @@
         <v>65</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J21" s="7">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K21" s="1">
-        <v>38.6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>59</v>
@@ -1461,7 +1461,7 @@
         <v>79</v>
       </c>
       <c r="D22" s="1">
-        <v>3920</v>
+        <v>3901</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>6</v>
@@ -1476,103 +1476,103 @@
         <v>65</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J22" s="6">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="K22" s="1">
-        <v>34.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>27</v>
+      <c r="A23" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>3921</v>
+        <v>3901</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J23" s="6">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K23" s="1">
-        <v>37.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D24" s="1">
-        <v>3922</v>
+        <v>3906</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="7">
-        <v>136</v>
+        <v>69</v>
+      </c>
+      <c r="J24" s="6">
+        <v>141</v>
       </c>
       <c r="K24" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>29</v>
+      <c r="A25" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>3923</v>
+        <v>3906</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>63</v>
@@ -1581,153 +1581,153 @@
         <v>65</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J25" s="6">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="K25" s="1">
-        <v>33.9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="1">
-        <v>3924</v>
+        <v>3907</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="6">
+        <v>176</v>
+      </c>
+      <c r="K26" s="1">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3907</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="6">
+        <v>176</v>
+      </c>
+      <c r="K27" s="1">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3910</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="7">
-        <v>134</v>
-      </c>
-      <c r="K26" s="1">
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3925</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" s="7">
+      <c r="G28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="7">
         <v>136</v>
       </c>
-      <c r="K27" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3882</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="6">
-        <v>160</v>
-      </c>
       <c r="K28" s="1">
-        <v>34.4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1">
-        <v>3889</v>
+        <v>3910</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" s="6">
-        <v>177</v>
+        <v>70</v>
+      </c>
+      <c r="J29" s="7">
+        <v>136</v>
       </c>
       <c r="K29" s="1">
-        <v>32.4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1767,19 +1767,19 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D31" s="1">
-        <v>4057</v>
+        <v>3911</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>4</v>
@@ -1788,30 +1788,30 @@
         <v>63</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="J31" s="6">
-        <v>190</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
+      </c>
+      <c r="K31" s="1">
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>33</v>
+      <c r="A32" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="1">
-        <v>4058</v>
+        <v>3912</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>6</v>
@@ -1823,30 +1823,30 @@
         <v>63</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="J32" s="6">
-        <v>173</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>58</v>
+        <v>165</v>
+      </c>
+      <c r="K32" s="1">
+        <v>35.9</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>34</v>
+      <c r="A33" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="1">
-        <v>4059</v>
+        <v>3912</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>6</v>
@@ -1858,71 +1858,71 @@
         <v>63</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="J33" s="6">
-        <v>184</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>58</v>
+        <v>165</v>
+      </c>
+      <c r="K33" s="1">
+        <v>35.9</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>35</v>
+      <c r="A34" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1">
-        <v>4060</v>
+        <v>3916</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="J34" s="6">
-        <v>133</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>58</v>
+        <v>122</v>
+      </c>
+      <c r="K34" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>3882</v>
+        <v>3916</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>63</v>
@@ -1931,27 +1931,27 @@
         <v>65</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J35" s="6">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="K35" s="1">
-        <v>34.4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>37</v>
+      <c r="A36" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="1">
-        <v>3883</v>
+        <v>3917</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>5</v>
@@ -1966,27 +1966,27 @@
         <v>65</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J36" s="7">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="K36" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>3884</v>
+        <v>3917</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>5</v>
@@ -1995,129 +1995,129 @@
         <v>61</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J37" s="6">
-        <v>136</v>
+        <v>71</v>
+      </c>
+      <c r="J37" s="7">
+        <v>127</v>
       </c>
       <c r="K37" s="1">
-        <v>5.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>39</v>
+      <c r="A38" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="1">
-        <v>3885</v>
+        <v>3919</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J38" s="6">
-        <v>143</v>
+        <v>71</v>
+      </c>
+      <c r="J38" s="7">
+        <v>169</v>
       </c>
       <c r="K38" s="1">
-        <v>4.5</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="1">
-        <v>3889</v>
+        <v>3919</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J39" s="6">
-        <v>177</v>
+        <v>71</v>
+      </c>
+      <c r="J39" s="7">
+        <v>169</v>
       </c>
       <c r="K39" s="1">
-        <v>32.4</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>41</v>
+      <c r="A40" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40" s="1">
-        <v>3894</v>
+        <v>3920</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J40" s="6">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="K40" s="1">
-        <v>37</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>59</v>
@@ -2126,10 +2126,10 @@
         <v>80</v>
       </c>
       <c r="D41" s="1">
-        <v>3895</v>
+        <v>3920</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>61</v>
@@ -2141,193 +2141,193 @@
         <v>65</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J41" s="6">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="K41" s="1">
-        <v>3.8</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>43</v>
+      <c r="A42" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="1">
-        <v>3899</v>
+        <v>3921</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J42" s="7">
-        <v>184</v>
+        <v>72</v>
+      </c>
+      <c r="J42" s="6">
+        <v>158</v>
       </c>
       <c r="K42" s="1">
-        <v>36</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D43" s="1">
-        <v>3901</v>
+        <v>3921</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" s="6">
+        <v>158</v>
+      </c>
+      <c r="K43" s="1">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3922</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J43" s="6">
-        <v>160</v>
-      </c>
-      <c r="K43" s="1">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3906</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J44" s="6">
-        <v>141</v>
+        <v>72</v>
+      </c>
+      <c r="J44" s="7">
+        <v>136</v>
       </c>
       <c r="K44" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="1">
-        <v>3907</v>
+        <v>3922</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" s="7">
+        <v>136</v>
+      </c>
+      <c r="K45" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3923</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J45" s="6">
-        <v>176</v>
-      </c>
-      <c r="K45" s="1">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="1">
-        <v>3910</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J46" s="7">
-        <v>136</v>
+        <v>73</v>
+      </c>
+      <c r="J46" s="6">
+        <v>170</v>
       </c>
       <c r="K46" s="1">
-        <v>34</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>84</v>
@@ -2336,7 +2336,7 @@
         <v>80</v>
       </c>
       <c r="D47" s="1">
-        <v>3911</v>
+        <v>3923</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>6</v>
@@ -2351,53 +2351,53 @@
         <v>65</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J47" s="6">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K47" s="1">
-        <v>35.799999999999997</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>49</v>
+      <c r="A48" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="1">
-        <v>3916</v>
+        <v>3924</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J48" s="6">
-        <v>122</v>
+        <v>73</v>
+      </c>
+      <c r="J48" s="7">
+        <v>134</v>
       </c>
       <c r="K48" s="1">
-        <v>34</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>60</v>
@@ -2406,7 +2406,7 @@
         <v>80</v>
       </c>
       <c r="D49" s="1">
-        <v>3917</v>
+        <v>3924</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>5</v>
@@ -2421,30 +2421,30 @@
         <v>65</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J49" s="7">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="K49" s="1">
-        <v>36</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>51</v>
+      <c r="A50" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" s="1">
-        <v>3919</v>
+        <v>3925</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>61</v>
@@ -2456,132 +2456,132 @@
         <v>65</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J50" s="7">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="K50" s="1">
-        <v>38.6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D51" s="1">
-        <v>3920</v>
+        <v>3925</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J51" s="6">
-        <v>134</v>
+        <v>73</v>
+      </c>
+      <c r="J51" s="7">
+        <v>136</v>
       </c>
       <c r="K51" s="1">
-        <v>34.1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D52" s="1">
-        <v>3921</v>
+        <v>4057</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J52" s="6">
-        <v>158</v>
-      </c>
-      <c r="K52" s="1">
-        <v>37.5</v>
+        <v>190</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>54</v>
+      <c r="A53" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="1">
-        <v>3922</v>
+        <v>4058</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J53" s="7">
-        <v>136</v>
-      </c>
-      <c r="K53" s="1">
-        <v>35</v>
+        <v>58</v>
+      </c>
+      <c r="J53" s="6">
+        <v>173</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D54" s="1">
-        <v>3923</v>
+        <v>4058</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>6</v>
@@ -2593,100 +2593,100 @@
         <v>63</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="J54" s="6">
-        <v>170</v>
-      </c>
-      <c r="K54" s="1">
-        <v>33.9</v>
+        <v>173</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>56</v>
+      <c r="A55" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D55" s="1">
-        <v>3924</v>
+        <v>4059</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J55" s="7">
-        <v>134</v>
-      </c>
-      <c r="K55" s="1">
-        <v>36.700000000000003</v>
+        <v>58</v>
+      </c>
+      <c r="J55" s="6">
+        <v>184</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D56" s="1">
-        <v>3925</v>
+        <v>4059</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J56" s="7">
-        <v>136</v>
-      </c>
-      <c r="K56" s="1">
-        <v>35</v>
+        <v>58</v>
+      </c>
+      <c r="J56" s="6">
+        <v>184</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D57" s="1">
-        <v>3890</v>
+        <v>4060</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>5</v>
@@ -2698,33 +2698,33 @@
         <v>63</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J57" s="6">
-        <v>167</v>
-      </c>
-      <c r="K57" s="1">
+        <v>133</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="B58" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D58" s="1">
-        <v>3912</v>
+        <v>4060</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>4</v>
@@ -2733,21 +2733,21 @@
         <v>63</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="J58" s="6">
-        <v>165</v>
-      </c>
-      <c r="K58" s="1">
-        <v>35.9</v>
+        <v>133</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K58">
-    <sortCondition ref="A1:A58"/>
+    <sortCondition ref="D1:D58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Cecum_Microbes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{2E4C2DE0-6344-4D58-AFF5-2FD60445EDFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{53BE5BF6-9237-4069-9512-F1ECE2BE4D60}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{2E4C2DE0-6344-4D58-AFF5-2FD60445EDFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{61F5B84F-E480-4964-BB69-5A553BA11F1C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02758EDA-B4C7-4EF1-9F87-DB4E872C78DC}"/>
   </bookViews>
@@ -227,9 +227,6 @@
     <t>Diet</t>
   </si>
   <si>
-    <t>Lab</t>
-  </si>
-  <si>
     <t>Wild</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
     <t>Summer_Wild</t>
   </si>
   <si>
-    <t>Summer_Lab</t>
-  </si>
-  <si>
     <t>BodyTemp</t>
   </si>
   <si>
@@ -300,6 +294,12 @@
   </si>
   <si>
     <t>BodyMass</t>
+  </si>
+  <si>
+    <t>Summer_Captive</t>
+  </si>
+  <si>
+    <t>Captive</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -735,19 +735,19 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -755,10 +755,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1">
         <v>3881</v>
@@ -773,10 +773,10 @@
         <v>63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="6">
         <v>185</v>
@@ -787,13 +787,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1">
         <v>3882</v>
@@ -808,10 +808,10 @@
         <v>63</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="6">
         <v>160</v>
@@ -825,10 +825,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1">
         <v>3882</v>
@@ -843,10 +843,10 @@
         <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" s="6">
         <v>160</v>
@@ -863,7 +863,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1">
         <v>3883</v>
@@ -878,10 +878,10 @@
         <v>60</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" s="7">
         <v>150</v>
@@ -898,7 +898,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1">
         <v>3883</v>
@@ -913,10 +913,10 @@
         <v>60</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" s="7">
         <v>150</v>
@@ -933,7 +933,7 @@
         <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1">
         <v>3884</v>
@@ -948,10 +948,10 @@
         <v>59</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="6">
         <v>136</v>
@@ -968,7 +968,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1">
         <v>3884</v>
@@ -983,10 +983,10 @@
         <v>59</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" s="6">
         <v>136</v>
@@ -1003,7 +1003,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1">
         <v>3885</v>
@@ -1018,10 +1018,10 @@
         <v>59</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="6">
         <v>143</v>
@@ -1038,7 +1038,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1">
         <v>3885</v>
@@ -1053,10 +1053,10 @@
         <v>59</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="6">
         <v>143</v>
@@ -1067,13 +1067,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1">
         <v>3886</v>
@@ -1088,10 +1088,10 @@
         <v>59</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="6">
         <v>168</v>
@@ -1102,13 +1102,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1">
         <v>3889</v>
@@ -1123,10 +1123,10 @@
         <v>63</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="6">
         <v>177</v>
@@ -1140,10 +1140,10 @@
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1">
         <v>3889</v>
@@ -1158,10 +1158,10 @@
         <v>63</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="6">
         <v>177</v>
@@ -1175,10 +1175,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1">
         <v>3890</v>
@@ -1193,10 +1193,10 @@
         <v>63</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="6">
         <v>167</v>
@@ -1207,13 +1207,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1">
         <v>3890</v>
@@ -1228,10 +1228,10 @@
         <v>63</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" s="6">
         <v>167</v>
@@ -1248,7 +1248,7 @@
         <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1">
         <v>3894</v>
@@ -1263,10 +1263,10 @@
         <v>63</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" s="6">
         <v>154</v>
@@ -1283,7 +1283,7 @@
         <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1">
         <v>3894</v>
@@ -1298,10 +1298,10 @@
         <v>63</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="6">
         <v>154</v>
@@ -1318,7 +1318,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1">
         <v>3895</v>
@@ -1333,10 +1333,10 @@
         <v>59</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J18" s="6">
         <v>141</v>
@@ -1353,7 +1353,7 @@
         <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1">
         <v>3895</v>
@@ -1368,10 +1368,10 @@
         <v>59</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J19" s="6">
         <v>141</v>
@@ -1388,7 +1388,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1">
         <v>3899</v>
@@ -1403,10 +1403,10 @@
         <v>60</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J20" s="7">
         <v>184</v>
@@ -1423,7 +1423,7 @@
         <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1">
         <v>3899</v>
@@ -1438,10 +1438,10 @@
         <v>60</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J21" s="7">
         <v>184</v>
@@ -1458,7 +1458,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1">
         <v>3901</v>
@@ -1473,10 +1473,10 @@
         <v>59</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J22" s="6">
         <v>160</v>
@@ -1493,7 +1493,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1">
         <v>3901</v>
@@ -1508,10 +1508,10 @@
         <v>59</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J23" s="6">
         <v>160</v>
@@ -1528,7 +1528,7 @@
         <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1">
         <v>3906</v>
@@ -1543,10 +1543,10 @@
         <v>63</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J24" s="6">
         <v>141</v>
@@ -1563,7 +1563,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1">
         <v>3906</v>
@@ -1578,10 +1578,10 @@
         <v>63</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J25" s="6">
         <v>141</v>
@@ -1595,10 +1595,10 @@
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1">
         <v>3907</v>
@@ -1613,10 +1613,10 @@
         <v>63</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J26" s="6">
         <v>176</v>
@@ -1630,10 +1630,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1">
         <v>3907</v>
@@ -1648,10 +1648,10 @@
         <v>63</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J27" s="6">
         <v>176</v>
@@ -1668,7 +1668,7 @@
         <v>60</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1">
         <v>3910</v>
@@ -1683,10 +1683,10 @@
         <v>60</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J28" s="7">
         <v>136</v>
@@ -1703,7 +1703,7 @@
         <v>60</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1">
         <v>3910</v>
@@ -1718,10 +1718,10 @@
         <v>60</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J29" s="7">
         <v>136</v>
@@ -1732,13 +1732,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1">
         <v>3911</v>
@@ -1753,10 +1753,10 @@
         <v>63</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J30" s="6">
         <v>164</v>
@@ -1770,10 +1770,10 @@
         <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="1">
         <v>3911</v>
@@ -1788,10 +1788,10 @@
         <v>63</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J31" s="6">
         <v>164</v>
@@ -1805,10 +1805,10 @@
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1">
         <v>3912</v>
@@ -1823,10 +1823,10 @@
         <v>63</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J32" s="6">
         <v>165</v>
@@ -1837,13 +1837,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="1">
         <v>3912</v>
@@ -1858,10 +1858,10 @@
         <v>63</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J33" s="6">
         <v>165</v>
@@ -1878,7 +1878,7 @@
         <v>62</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1">
         <v>3916</v>
@@ -1893,10 +1893,10 @@
         <v>63</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J34" s="6">
         <v>122</v>
@@ -1913,7 +1913,7 @@
         <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" s="1">
         <v>3916</v>
@@ -1928,10 +1928,10 @@
         <v>63</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J35" s="6">
         <v>122</v>
@@ -1948,7 +1948,7 @@
         <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1">
         <v>3917</v>
@@ -1963,10 +1963,10 @@
         <v>60</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J36" s="7">
         <v>127</v>
@@ -1983,7 +1983,7 @@
         <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="1">
         <v>3917</v>
@@ -1998,10 +1998,10 @@
         <v>60</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J37" s="7">
         <v>127</v>
@@ -2018,7 +2018,7 @@
         <v>60</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="1">
         <v>3919</v>
@@ -2033,10 +2033,10 @@
         <v>60</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J38" s="7">
         <v>169</v>
@@ -2053,7 +2053,7 @@
         <v>60</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D39" s="1">
         <v>3919</v>
@@ -2068,10 +2068,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J39" s="7">
         <v>169</v>
@@ -2088,7 +2088,7 @@
         <v>59</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1">
         <v>3920</v>
@@ -2103,10 +2103,10 @@
         <v>59</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J40" s="6">
         <v>134</v>
@@ -2123,7 +2123,7 @@
         <v>59</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D41" s="1">
         <v>3920</v>
@@ -2138,10 +2138,10 @@
         <v>59</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J41" s="6">
         <v>134</v>
@@ -2158,7 +2158,7 @@
         <v>62</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1">
         <v>3921</v>
@@ -2173,10 +2173,10 @@
         <v>63</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J42" s="6">
         <v>158</v>
@@ -2193,7 +2193,7 @@
         <v>62</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="1">
         <v>3921</v>
@@ -2208,10 +2208,10 @@
         <v>63</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J43" s="6">
         <v>158</v>
@@ -2228,7 +2228,7 @@
         <v>60</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" s="1">
         <v>3922</v>
@@ -2243,10 +2243,10 @@
         <v>60</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J44" s="7">
         <v>136</v>
@@ -2263,7 +2263,7 @@
         <v>60</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" s="1">
         <v>3922</v>
@@ -2278,10 +2278,10 @@
         <v>60</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J45" s="7">
         <v>136</v>
@@ -2295,10 +2295,10 @@
         <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="1">
         <v>3923</v>
@@ -2313,10 +2313,10 @@
         <v>63</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J46" s="6">
         <v>170</v>
@@ -2330,10 +2330,10 @@
         <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="1">
         <v>3923</v>
@@ -2348,10 +2348,10 @@
         <v>63</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J47" s="6">
         <v>170</v>
@@ -2368,7 +2368,7 @@
         <v>60</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="1">
         <v>3924</v>
@@ -2383,10 +2383,10 @@
         <v>60</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J48" s="7">
         <v>134</v>
@@ -2403,7 +2403,7 @@
         <v>60</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="1">
         <v>3924</v>
@@ -2418,10 +2418,10 @@
         <v>60</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J49" s="7">
         <v>134</v>
@@ -2438,7 +2438,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D50" s="1">
         <v>3925</v>
@@ -2453,10 +2453,10 @@
         <v>60</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J50" s="7">
         <v>136</v>
@@ -2473,7 +2473,7 @@
         <v>60</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="1">
         <v>3925</v>
@@ -2488,10 +2488,10 @@
         <v>60</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J51" s="7">
         <v>136</v>
@@ -2505,10 +2505,10 @@
         <v>32</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D52" s="1">
         <v>4057</v>
@@ -2523,7 +2523,7 @@
         <v>63</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>58</v>
@@ -2540,10 +2540,10 @@
         <v>7</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D53" s="1">
         <v>4058</v>
@@ -2558,7 +2558,7 @@
         <v>63</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>58</v>
@@ -2575,10 +2575,10 @@
         <v>33</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D54" s="1">
         <v>4058</v>
@@ -2593,7 +2593,7 @@
         <v>63</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>58</v>
@@ -2610,10 +2610,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" s="1">
         <v>4059</v>
@@ -2628,7 +2628,7 @@
         <v>63</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>58</v>
@@ -2645,10 +2645,10 @@
         <v>34</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D56" s="1">
         <v>4059</v>
@@ -2663,7 +2663,7 @@
         <v>63</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>58</v>
@@ -2680,10 +2680,10 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D57" s="1">
         <v>4060</v>
@@ -2698,7 +2698,7 @@
         <v>63</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>58</v>
@@ -2715,10 +2715,10 @@
         <v>35</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D58" s="1">
         <v>4060</v>
@@ -2733,7 +2733,7 @@
         <v>63</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>58</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Cecum_Microbes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/WildCaptive_SeqTech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{2E4C2DE0-6344-4D58-AFF5-2FD60445EDFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{61F5B84F-E480-4964-BB69-5A553BA11F1C}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{2E4C2DE0-6344-4D58-AFF5-2FD60445EDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F84C330-EA2D-4323-A158-E258DA768FB0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02758EDA-B4C7-4EF1-9F87-DB4E872C78DC}"/>
   </bookViews>
@@ -697,19 +697,19 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/WildCaptive_SeqTech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{2E4C2DE0-6344-4D58-AFF5-2FD60445EDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F84C330-EA2D-4323-A158-E258DA768FB0}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{2E4C2DE0-6344-4D58-AFF5-2FD60445EDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BC34784-BD06-4F13-8F37-27EEEB547805}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02758EDA-B4C7-4EF1-9F87-DB4E872C78DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -697,7 +701,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/WildCaptive_SeqTech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{2E4C2DE0-6344-4D58-AFF5-2FD60445EDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BC34784-BD06-4F13-8F37-27EEEB547805}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{2E4C2DE0-6344-4D58-AFF5-2FD60445EDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6E88455-45FD-41F1-8EDB-9F913833B75B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02758EDA-B4C7-4EF1-9F87-DB4E872C78DC}"/>
   </bookViews>
@@ -701,7 +701,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="A28" activeCellId="6" sqref="A48:XFD51 A38:XFD39 A44:XFD45 A36:XFD37 A5:XFD6 A20:XFD21 A28:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
